--- a/APM files/139675497/139675497 IMPORT 6 Compensation import.xlsx
+++ b/APM files/139675497/139675497 IMPORT 6 Compensation import.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/138531860/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/139675497/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D11E7D-E9F7-4646-A724-3406F499CA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4930D1-DB6A-DD4F-ABC1-DC69A5FDDC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="375">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -409,6 +409,756 @@
   </si>
   <si>
     <t>115054004</t>
+  </si>
+  <si>
+    <t>116350922</t>
+  </si>
+  <si>
+    <t>116350928</t>
+  </si>
+  <si>
+    <t>116350929</t>
+  </si>
+  <si>
+    <t>116350930</t>
+  </si>
+  <si>
+    <t>116350934</t>
+  </si>
+  <si>
+    <t>116350935</t>
+  </si>
+  <si>
+    <t>116350936</t>
+  </si>
+  <si>
+    <t>116350939</t>
+  </si>
+  <si>
+    <t>116350940</t>
+  </si>
+  <si>
+    <t>116350943</t>
+  </si>
+  <si>
+    <t>116350944</t>
+  </si>
+  <si>
+    <t>116350946</t>
+  </si>
+  <si>
+    <t>116350948</t>
+  </si>
+  <si>
+    <t>116350949</t>
+  </si>
+  <si>
+    <t>116350950</t>
+  </si>
+  <si>
+    <t>116350953</t>
+  </si>
+  <si>
+    <t>116350955</t>
+  </si>
+  <si>
+    <t>116350956</t>
+  </si>
+  <si>
+    <t>116350957</t>
+  </si>
+  <si>
+    <t>116350958</t>
+  </si>
+  <si>
+    <t>116350960</t>
+  </si>
+  <si>
+    <t>116350963</t>
+  </si>
+  <si>
+    <t>116350964</t>
+  </si>
+  <si>
+    <t>116350966</t>
+  </si>
+  <si>
+    <t>116350967</t>
+  </si>
+  <si>
+    <t>116350968</t>
+  </si>
+  <si>
+    <t>116350971</t>
+  </si>
+  <si>
+    <t>116350973</t>
+  </si>
+  <si>
+    <t>116350974</t>
+  </si>
+  <si>
+    <t>116350975</t>
+  </si>
+  <si>
+    <t>116350976</t>
+  </si>
+  <si>
+    <t>116350979</t>
+  </si>
+  <si>
+    <t>116350981</t>
+  </si>
+  <si>
+    <t>116350982</t>
+  </si>
+  <si>
+    <t>116350983</t>
+  </si>
+  <si>
+    <t>116350984</t>
+  </si>
+  <si>
+    <t>116350986</t>
+  </si>
+  <si>
+    <t>116350988</t>
+  </si>
+  <si>
+    <t>116350989</t>
+  </si>
+  <si>
+    <t>116350991</t>
+  </si>
+  <si>
+    <t>116350992</t>
+  </si>
+  <si>
+    <t>116350994</t>
+  </si>
+  <si>
+    <t>116350996</t>
+  </si>
+  <si>
+    <t>116350997</t>
+  </si>
+  <si>
+    <t>116350999</t>
+  </si>
+  <si>
+    <t>116351001</t>
+  </si>
+  <si>
+    <t>116351003</t>
+  </si>
+  <si>
+    <t>116351005</t>
+  </si>
+  <si>
+    <t>116351006</t>
+  </si>
+  <si>
+    <t>116351008</t>
+  </si>
+  <si>
+    <t>116351011</t>
+  </si>
+  <si>
+    <t>116351013</t>
+  </si>
+  <si>
+    <t>116351014</t>
+  </si>
+  <si>
+    <t>116351017</t>
+  </si>
+  <si>
+    <t>116351018</t>
+  </si>
+  <si>
+    <t>116351020</t>
+  </si>
+  <si>
+    <t>116351021</t>
+  </si>
+  <si>
+    <t>116351024</t>
+  </si>
+  <si>
+    <t>116351025</t>
+  </si>
+  <si>
+    <t>116351026</t>
+  </si>
+  <si>
+    <t>116351029</t>
+  </si>
+  <si>
+    <t>116351031</t>
+  </si>
+  <si>
+    <t>116351032</t>
+  </si>
+  <si>
+    <t>116351034</t>
+  </si>
+  <si>
+    <t>116351035</t>
+  </si>
+  <si>
+    <t>116351038</t>
+  </si>
+  <si>
+    <t>116351039</t>
+  </si>
+  <si>
+    <t>116351040</t>
+  </si>
+  <si>
+    <t>116351042</t>
+  </si>
+  <si>
+    <t>116351044</t>
+  </si>
+  <si>
+    <t>116351046</t>
+  </si>
+  <si>
+    <t>116351048</t>
+  </si>
+  <si>
+    <t>116351049</t>
+  </si>
+  <si>
+    <t>116351052</t>
+  </si>
+  <si>
+    <t>116351053</t>
+  </si>
+  <si>
+    <t>116351056</t>
+  </si>
+  <si>
+    <t>116351059</t>
+  </si>
+  <si>
+    <t>116351060</t>
+  </si>
+  <si>
+    <t>116351061</t>
+  </si>
+  <si>
+    <t>116351064</t>
+  </si>
+  <si>
+    <t>116351066</t>
+  </si>
+  <si>
+    <t>116351069</t>
+  </si>
+  <si>
+    <t>116351070</t>
+  </si>
+  <si>
+    <t>116351072</t>
+  </si>
+  <si>
+    <t>116351075</t>
+  </si>
+  <si>
+    <t>116351076</t>
+  </si>
+  <si>
+    <t>116351077</t>
+  </si>
+  <si>
+    <t>116351079</t>
+  </si>
+  <si>
+    <t>116351081</t>
+  </si>
+  <si>
+    <t>116351082</t>
+  </si>
+  <si>
+    <t>116351083</t>
+  </si>
+  <si>
+    <t>116351084</t>
+  </si>
+  <si>
+    <t>116351085</t>
+  </si>
+  <si>
+    <t>116351087</t>
+  </si>
+  <si>
+    <t>116351088</t>
+  </si>
+  <si>
+    <t>116351090</t>
+  </si>
+  <si>
+    <t>116351092</t>
+  </si>
+  <si>
+    <t>116351093</t>
+  </si>
+  <si>
+    <t>116351094</t>
+  </si>
+  <si>
+    <t>116351095</t>
+  </si>
+  <si>
+    <t>116351097</t>
+  </si>
+  <si>
+    <t>116351100</t>
+  </si>
+  <si>
+    <t>116351101</t>
+  </si>
+  <si>
+    <t>116351102</t>
+  </si>
+  <si>
+    <t>116351104</t>
+  </si>
+  <si>
+    <t>116351106</t>
+  </si>
+  <si>
+    <t>116351107</t>
+  </si>
+  <si>
+    <t>116351109</t>
+  </si>
+  <si>
+    <t>116351111</t>
+  </si>
+  <si>
+    <t>116351113</t>
+  </si>
+  <si>
+    <t>116351115</t>
+  </si>
+  <si>
+    <t>116351116</t>
+  </si>
+  <si>
+    <t>116351120</t>
+  </si>
+  <si>
+    <t>116351121</t>
+  </si>
+  <si>
+    <t>116351123</t>
+  </si>
+  <si>
+    <t>116351125</t>
+  </si>
+  <si>
+    <t>116351127</t>
+  </si>
+  <si>
+    <t>116351128</t>
+  </si>
+  <si>
+    <t>116351130</t>
+  </si>
+  <si>
+    <t>116351132</t>
+  </si>
+  <si>
+    <t>116351134</t>
+  </si>
+  <si>
+    <t>116351136</t>
+  </si>
+  <si>
+    <t>116351138</t>
+  </si>
+  <si>
+    <t>116351139</t>
+  </si>
+  <si>
+    <t>116351141</t>
+  </si>
+  <si>
+    <t>116351142</t>
+  </si>
+  <si>
+    <t>116351144</t>
+  </si>
+  <si>
+    <t>116351146</t>
+  </si>
+  <si>
+    <t>116351147</t>
+  </si>
+  <si>
+    <t>116351150</t>
+  </si>
+  <si>
+    <t>116351151</t>
+  </si>
+  <si>
+    <t>116351153</t>
+  </si>
+  <si>
+    <t>116351155</t>
+  </si>
+  <si>
+    <t>116351157</t>
+  </si>
+  <si>
+    <t>116351158</t>
+  </si>
+  <si>
+    <t>116351159</t>
+  </si>
+  <si>
+    <t>116351161</t>
+  </si>
+  <si>
+    <t>116351162</t>
+  </si>
+  <si>
+    <t>116351163</t>
+  </si>
+  <si>
+    <t>116351165</t>
+  </si>
+  <si>
+    <t>116351167</t>
+  </si>
+  <si>
+    <t>116351168</t>
+  </si>
+  <si>
+    <t>116351170</t>
+  </si>
+  <si>
+    <t>116351171</t>
+  </si>
+  <si>
+    <t>116351172</t>
+  </si>
+  <si>
+    <t>116351175</t>
+  </si>
+  <si>
+    <t>116351176</t>
+  </si>
+  <si>
+    <t>116351178</t>
+  </si>
+  <si>
+    <t>116351179</t>
+  </si>
+  <si>
+    <t>116351181</t>
+  </si>
+  <si>
+    <t>116351182</t>
+  </si>
+  <si>
+    <t>116351183</t>
+  </si>
+  <si>
+    <t>116351184</t>
+  </si>
+  <si>
+    <t>116351186</t>
+  </si>
+  <si>
+    <t>116351187</t>
+  </si>
+  <si>
+    <t>116351188</t>
+  </si>
+  <si>
+    <t>116351191</t>
+  </si>
+  <si>
+    <t>116351192</t>
+  </si>
+  <si>
+    <t>116351193</t>
+  </si>
+  <si>
+    <t>116351194</t>
+  </si>
+  <si>
+    <t>116351195</t>
+  </si>
+  <si>
+    <t>116351198</t>
+  </si>
+  <si>
+    <t>116351199</t>
+  </si>
+  <si>
+    <t>116351200</t>
+  </si>
+  <si>
+    <t>116351201</t>
+  </si>
+  <si>
+    <t>116351202</t>
+  </si>
+  <si>
+    <t>116351203</t>
+  </si>
+  <si>
+    <t>116351204</t>
+  </si>
+  <si>
+    <t>116351206</t>
+  </si>
+  <si>
+    <t>116351208</t>
+  </si>
+  <si>
+    <t>116351209</t>
+  </si>
+  <si>
+    <t>116351210</t>
+  </si>
+  <si>
+    <t>116351212</t>
+  </si>
+  <si>
+    <t>116351213</t>
+  </si>
+  <si>
+    <t>116351215</t>
+  </si>
+  <si>
+    <t>116351216</t>
+  </si>
+  <si>
+    <t>116351218</t>
+  </si>
+  <si>
+    <t>116351219</t>
+  </si>
+  <si>
+    <t>116351221</t>
+  </si>
+  <si>
+    <t>116351222</t>
+  </si>
+  <si>
+    <t>116351223</t>
+  </si>
+  <si>
+    <t>116351226</t>
+  </si>
+  <si>
+    <t>116351227</t>
+  </si>
+  <si>
+    <t>116351228</t>
+  </si>
+  <si>
+    <t>116351229</t>
+  </si>
+  <si>
+    <t>116351231</t>
+  </si>
+  <si>
+    <t>116351233</t>
+  </si>
+  <si>
+    <t>116351234</t>
+  </si>
+  <si>
+    <t>116351236</t>
+  </si>
+  <si>
+    <t>116351237</t>
+  </si>
+  <si>
+    <t>116351238</t>
+  </si>
+  <si>
+    <t>116351240</t>
+  </si>
+  <si>
+    <t>116351242</t>
+  </si>
+  <si>
+    <t>116351243</t>
+  </si>
+  <si>
+    <t>116351245</t>
+  </si>
+  <si>
+    <t>116351247</t>
+  </si>
+  <si>
+    <t>116351249</t>
+  </si>
+  <si>
+    <t>116351250</t>
+  </si>
+  <si>
+    <t>116351253</t>
+  </si>
+  <si>
+    <t>116351254</t>
+  </si>
+  <si>
+    <t>116351255</t>
+  </si>
+  <si>
+    <t>116351257</t>
+  </si>
+  <si>
+    <t>116351259</t>
+  </si>
+  <si>
+    <t>116351261</t>
+  </si>
+  <si>
+    <t>116351262</t>
+  </si>
+  <si>
+    <t>116351264</t>
+  </si>
+  <si>
+    <t>116351265</t>
+  </si>
+  <si>
+    <t>116351267</t>
+  </si>
+  <si>
+    <t>116351268</t>
+  </si>
+  <si>
+    <t>116351270</t>
+  </si>
+  <si>
+    <t>116351272</t>
+  </si>
+  <si>
+    <t>116351273</t>
+  </si>
+  <si>
+    <t>116351274</t>
+  </si>
+  <si>
+    <t>116351276</t>
+  </si>
+  <si>
+    <t>116351277</t>
+  </si>
+  <si>
+    <t>116351278</t>
+  </si>
+  <si>
+    <t>116351280</t>
+  </si>
+  <si>
+    <t>116351281</t>
+  </si>
+  <si>
+    <t>116351283</t>
+  </si>
+  <si>
+    <t>116351284</t>
+  </si>
+  <si>
+    <t>116351286</t>
+  </si>
+  <si>
+    <t>116351289</t>
+  </si>
+  <si>
+    <t>116351290</t>
+  </si>
+  <si>
+    <t>116351292</t>
+  </si>
+  <si>
+    <t>116351294</t>
+  </si>
+  <si>
+    <t>116351295</t>
+  </si>
+  <si>
+    <t>116351297</t>
+  </si>
+  <si>
+    <t>116351299</t>
+  </si>
+  <si>
+    <t>116351300</t>
+  </si>
+  <si>
+    <t>116351301</t>
+  </si>
+  <si>
+    <t>116351303</t>
+  </si>
+  <si>
+    <t>116351304</t>
+  </si>
+  <si>
+    <t>116351305</t>
+  </si>
+  <si>
+    <t>116351307</t>
+  </si>
+  <si>
+    <t>116351308</t>
+  </si>
+  <si>
+    <t>116351311</t>
+  </si>
+  <si>
+    <t>116351312</t>
+  </si>
+  <si>
+    <t>116351313</t>
+  </si>
+  <si>
+    <t>116351314</t>
+  </si>
+  <si>
+    <t>116351316</t>
+  </si>
+  <si>
+    <t>116351318</t>
+  </si>
+  <si>
+    <t>116351319</t>
+  </si>
+  <si>
+    <t>116351320</t>
+  </si>
+  <si>
+    <t>116351321</t>
+  </si>
+  <si>
+    <t>116351324</t>
+  </si>
+  <si>
+    <t>116351326</t>
+  </si>
+  <si>
+    <t>116351327</t>
+  </si>
+  <si>
+    <t>116351328</t>
+  </si>
+  <si>
+    <t>116351329</t>
+  </si>
+  <si>
+    <t>116351332</t>
   </si>
 </sst>
 </file>
@@ -787,10 +1537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H362"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A321" zoomScale="132" workbookViewId="0">
+      <selection activeCell="C338" sqref="C338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3494,6 +4244,6006 @@
         <v>13</v>
       </c>
     </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>125</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>126</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>127</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>128</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>129</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>130</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>131</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>132</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>133</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>134</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>135</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>136</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>137</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>138</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>139</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>140</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>141</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>142</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>143</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>144</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>145</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>146</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>147</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>148</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>149</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>150</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>151</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>152</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>153</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>154</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>155</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>156</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>157</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>158</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>159</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>160</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>161</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>162</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>163</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>164</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>165</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>166</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>167</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>168</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>169</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>170</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>171</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>172</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>173</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>174</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>175</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>176</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>177</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>178</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>179</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>180</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>181</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>182</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>183</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>184</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>185</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>186</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>187</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>188</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>189</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>190</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>191</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>192</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>193</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>194</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>195</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>196</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>197</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>198</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>199</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>200</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>201</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>202</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>203</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>204</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>205</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>206</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>207</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>208</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>209</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>210</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198" s="3"/>
+      <c r="D198" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>211</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>212</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H200" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>213</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" s="3"/>
+      <c r="D201" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>214</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H202" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>215</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>216</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204" s="3"/>
+      <c r="D204" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H204" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>217</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F205" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>218</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F206" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>219</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F207" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>220</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>221</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F209" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>222</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>223</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F211" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>224</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>225</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>226</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F214" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>227</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215" s="3"/>
+      <c r="D215" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H215" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>228</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>229</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F217" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>230</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218" s="3"/>
+      <c r="D218" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F218" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>231</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" s="3"/>
+      <c r="D219" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>232</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220" s="3"/>
+      <c r="D220" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F220" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H220" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>233</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221" s="3"/>
+      <c r="D221" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F221" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>234</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" s="3"/>
+      <c r="D222" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>235</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223" s="3"/>
+      <c r="D223" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F223" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>236</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224" s="3"/>
+      <c r="D224" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F224" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>237</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F225" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>238</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226" s="3"/>
+      <c r="D226" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F226" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>239</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227" s="3"/>
+      <c r="D227" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F227" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>240</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228" s="3"/>
+      <c r="D228" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>241</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229" s="3"/>
+      <c r="D229" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F229" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>242</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230" s="3"/>
+      <c r="D230" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F230" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>243</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231" s="3"/>
+      <c r="D231" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H231" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>244</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232" s="3"/>
+      <c r="D232" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F232" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>245</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233" s="3"/>
+      <c r="D233" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H233" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>246</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234" s="3"/>
+      <c r="D234" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F234" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>247</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235" s="3"/>
+      <c r="D235" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F235" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G235" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H235" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>248</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236" s="3"/>
+      <c r="D236" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F236" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>249</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C237" s="3"/>
+      <c r="D237" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F237" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>250</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C238" s="3"/>
+      <c r="D238" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F238" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H238" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>251</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239" s="3"/>
+      <c r="D239" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F239" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H239" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>252</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240" s="3"/>
+      <c r="D240" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F240" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H240" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>253</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C241" s="3"/>
+      <c r="D241" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F241" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H241" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>254</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C242" s="3"/>
+      <c r="D242" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F242" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H242" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>255</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C243" s="3"/>
+      <c r="D243" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F243" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H243" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>256</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C244" s="3"/>
+      <c r="D244" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F244" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>257</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245" s="3"/>
+      <c r="D245" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F245" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H245" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>258</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C246" s="3"/>
+      <c r="D246" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F246" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G246" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H246" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>259</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C247" s="3"/>
+      <c r="D247" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F247" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G247" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H247" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>260</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C248" s="3"/>
+      <c r="D248" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F248" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H248" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>261</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C249" s="3"/>
+      <c r="D249" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F249" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G249" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H249" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>262</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C250" s="3"/>
+      <c r="D250" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F250" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H250" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>263</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C251" s="3"/>
+      <c r="D251" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F251" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H251" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>264</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C252" s="3"/>
+      <c r="D252" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F252" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H252" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>265</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C253" s="3"/>
+      <c r="D253" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F253" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H253" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>266</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C254" s="3"/>
+      <c r="D254" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F254" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H254" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>267</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C255" s="3"/>
+      <c r="D255" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F255" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G255" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H255" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>268</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C256" s="3"/>
+      <c r="D256" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F256" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H256" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>269</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C257" s="3"/>
+      <c r="D257" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F257" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G257" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H257" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>270</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C258" s="3"/>
+      <c r="D258" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F258" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G258" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H258" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>271</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C259" s="3"/>
+      <c r="D259" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F259" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G259" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H259" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>272</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C260" s="3"/>
+      <c r="D260" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F260" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G260" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H260" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>273</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C261" s="3"/>
+      <c r="D261" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F261" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G261" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H261" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>274</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C262" s="3"/>
+      <c r="D262" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F262" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H262" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>275</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C263" s="3"/>
+      <c r="D263" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F263" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G263" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H263" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>276</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C264" s="3"/>
+      <c r="D264" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F264" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G264" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H264" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>277</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C265" s="3"/>
+      <c r="D265" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F265" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H265" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>278</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C266" s="3"/>
+      <c r="D266" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F266" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G266" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H266" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>279</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C267" s="3"/>
+      <c r="D267" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F267" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G267" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H267" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>280</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C268" s="3"/>
+      <c r="D268" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F268" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G268" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H268" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>281</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C269" s="3"/>
+      <c r="D269" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F269" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G269" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H269" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>282</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C270" s="3"/>
+      <c r="D270" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F270" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G270" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H270" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>283</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C271" s="3"/>
+      <c r="D271" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F271" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G271" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H271" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>284</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C272" s="3"/>
+      <c r="D272" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F272" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G272" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H272" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>285</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C273" s="3"/>
+      <c r="D273" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F273" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G273" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H273" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>286</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C274" s="3"/>
+      <c r="D274" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F274" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G274" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H274" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>287</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C275" s="3"/>
+      <c r="D275" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F275" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G275" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>288</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C276" s="3"/>
+      <c r="D276" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F276" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G276" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H276" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>289</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C277" s="3"/>
+      <c r="D277" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F277" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G277" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H277" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>290</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C278" s="3"/>
+      <c r="D278" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F278" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G278" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H278" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>291</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C279" s="3"/>
+      <c r="D279" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F279" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G279" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H279" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>292</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C280" s="3"/>
+      <c r="D280" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F280" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G280" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H280" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>293</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C281" s="3"/>
+      <c r="D281" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F281" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G281" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H281" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>294</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C282" s="3"/>
+      <c r="D282" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F282" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G282" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H282" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>295</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C283" s="3"/>
+      <c r="D283" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F283" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G283" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H283" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>296</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C284" s="3"/>
+      <c r="D284" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F284" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G284" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H284" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>297</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C285" s="3"/>
+      <c r="D285" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F285" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G285" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H285" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>298</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C286" s="3"/>
+      <c r="D286" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F286" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G286" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H286" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>299</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C287" s="3"/>
+      <c r="D287" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F287" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G287" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H287" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>300</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C288" s="3"/>
+      <c r="D288" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F288" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G288" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H288" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>301</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289" s="3"/>
+      <c r="D289" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F289" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G289" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H289" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>302</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C290" s="3"/>
+      <c r="D290" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F290" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G290" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H290" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>303</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C291" s="3"/>
+      <c r="D291" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F291" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G291" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H291" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>304</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C292" s="3"/>
+      <c r="D292" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F292" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G292" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H292" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>305</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C293" s="3"/>
+      <c r="D293" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F293" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G293" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H293" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>306</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C294" s="3"/>
+      <c r="D294" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F294" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G294" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H294" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>307</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C295" s="3"/>
+      <c r="D295" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F295" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G295" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H295" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>308</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C296" s="3"/>
+      <c r="D296" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F296" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G296" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H296" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>309</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C297" s="3"/>
+      <c r="D297" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F297" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G297" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H297" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>310</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C298" s="3"/>
+      <c r="D298" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F298" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G298" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H298" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>311</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C299" s="3"/>
+      <c r="D299" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F299" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G299" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H299" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>312</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C300" s="3"/>
+      <c r="D300" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F300" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G300" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H300" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>313</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C301" s="3"/>
+      <c r="D301" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F301" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G301" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H301" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>314</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C302" s="3"/>
+      <c r="D302" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F302" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G302" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H302" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>315</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C303" s="3"/>
+      <c r="D303" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F303" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G303" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H303" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>316</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C304" s="3"/>
+      <c r="D304" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F304" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G304" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H304" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>317</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C305" s="3"/>
+      <c r="D305" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F305" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G305" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H305" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>318</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C306" s="3"/>
+      <c r="D306" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F306" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G306" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H306" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>319</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C307" s="3"/>
+      <c r="D307" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F307" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G307" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H307" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>320</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C308" s="3"/>
+      <c r="D308" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E308" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F308" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G308" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H308" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>321</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C309" s="3"/>
+      <c r="D309" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F309" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G309" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H309" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>322</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C310" s="3"/>
+      <c r="D310" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F310" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G310" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H310" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>323</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C311" s="3"/>
+      <c r="D311" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F311" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G311" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H311" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>324</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C312" s="3"/>
+      <c r="D312" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F312" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G312" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H312" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>325</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C313" s="3"/>
+      <c r="D313" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F313" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G313" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H313" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>326</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C314" s="3"/>
+      <c r="D314" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F314" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G314" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H314" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>327</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C315" s="3"/>
+      <c r="D315" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F315" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G315" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H315" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>328</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C316" s="3"/>
+      <c r="D316" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F316" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G316" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H316" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>329</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C317" s="3"/>
+      <c r="D317" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F317" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G317" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H317" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>330</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C318" s="3"/>
+      <c r="D318" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F318" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G318" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H318" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>331</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C319" s="3"/>
+      <c r="D319" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F319" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G319" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H319" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>332</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C320" s="3"/>
+      <c r="D320" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F320" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G320" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H320" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>333</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C321" s="3"/>
+      <c r="D321" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F321" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G321" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H321" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>334</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C322" s="3"/>
+      <c r="D322" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F322" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G322" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H322" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>335</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C323" s="3"/>
+      <c r="D323" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F323" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G323" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H323" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>336</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C324" s="3"/>
+      <c r="D324" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F324" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G324" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H324" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>337</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C325" s="3"/>
+      <c r="D325" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F325" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G325" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H325" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>338</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C326" s="3"/>
+      <c r="D326" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F326" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G326" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H326" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>339</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C327" s="3"/>
+      <c r="D327" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F327" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G327" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H327" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>340</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C328" s="3"/>
+      <c r="D328" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E328" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F328" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G328" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H328" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>341</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C329" s="3"/>
+      <c r="D329" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F329" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G329" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H329" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>342</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C330" s="3"/>
+      <c r="D330" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E330" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F330" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G330" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H330" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>343</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C331" s="3"/>
+      <c r="D331" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F331" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G331" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H331" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>344</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C332" s="3"/>
+      <c r="D332" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F332" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G332" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H332" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>345</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C333" s="3"/>
+      <c r="D333" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E333" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F333" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G333" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H333" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>346</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C334" s="3"/>
+      <c r="D334" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E334" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F334" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G334" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H334" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>347</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C335" s="3"/>
+      <c r="D335" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F335" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G335" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H335" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>348</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C336" s="3"/>
+      <c r="D336" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F336" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G336" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H336" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>349</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C337" s="3"/>
+      <c r="D337" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F337" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G337" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H337" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>350</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C338" s="3"/>
+      <c r="D338" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F338" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G338" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H338" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>351</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C339" s="3"/>
+      <c r="D339" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F339" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G339" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H339" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>352</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C340" s="3"/>
+      <c r="D340" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F340" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G340" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H340" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>353</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C341" s="3"/>
+      <c r="D341" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F341" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G341" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H341" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>354</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C342" s="3"/>
+      <c r="D342" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F342" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G342" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H342" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>355</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C343" s="3"/>
+      <c r="D343" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F343" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G343" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H343" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>356</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C344" s="3"/>
+      <c r="D344" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F344" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G344" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H344" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>357</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C345" s="3"/>
+      <c r="D345" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F345" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G345" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H345" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>358</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C346" s="3"/>
+      <c r="D346" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F346" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G346" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H346" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>359</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C347" s="3"/>
+      <c r="D347" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F347" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G347" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H347" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>360</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C348" s="3"/>
+      <c r="D348" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F348" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G348" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H348" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>361</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C349" s="3"/>
+      <c r="D349" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F349" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G349" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H349" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>362</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C350" s="3"/>
+      <c r="D350" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F350" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G350" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H350" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>363</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C351" s="3"/>
+      <c r="D351" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F351" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G351" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H351" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>364</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C352" s="3"/>
+      <c r="D352" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E352" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F352" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G352" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H352" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>365</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C353" s="3"/>
+      <c r="D353" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F353" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G353" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H353" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>366</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C354" s="3"/>
+      <c r="D354" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F354" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G354" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H354" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>367</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C355" s="3"/>
+      <c r="D355" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F355" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G355" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H355" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>368</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C356" s="3"/>
+      <c r="D356" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F356" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G356" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H356" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>369</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C357" s="3"/>
+      <c r="D357" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E357" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F357" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G357" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H357" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>370</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C358" s="3"/>
+      <c r="D358" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E358" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F358" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G358" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H358" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>371</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C359" s="3"/>
+      <c r="D359" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F359" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G359" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H359" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>372</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C360" s="3"/>
+      <c r="D360" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E360" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F360" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G360" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H360" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>373</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C361" s="3"/>
+      <c r="D361" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F361" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G361" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H361" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>374</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C362" s="3"/>
+      <c r="D362" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F362" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G362" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H362" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{BE7878DC-E3E4-49B7-A24E-EB60FE0654E6}"/>
   <phoneticPr fontId="4" type="noConversion"/>
